--- a/input/images/mappingFHIR_ROR_ME3_2023_12_18.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3_2023_12_18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Réalisation\Conseil\ASIP\ANS-006 Contrat cadre CI SIS 2021\Projets\ANS-006-99_ROR_Support_2\5_Production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phe\Desktop\IG-fhir-repertoire-offre-ressources-sante\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D36A8-D04F-4FCD-A343-75963139A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F4138F-C6CC-4D81-B78B-2EAC34350CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="596">
   <si>
     <t>FHIR path</t>
   </si>
@@ -1904,6 +1904,36 @@
   </si>
   <si>
     <t>JDV_J124-Commune</t>
+  </si>
+  <si>
+    <t>ror-organization-geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extension:latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extension:longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ror-confidence-geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoordonneeGeographique/coordonneesFiables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoordonneeGeographique/latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoordonneeGeographique/longitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        value[x]</t>
+  </si>
+  <si>
+    <t>uri</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2748,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2731,18 +2773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2777,37 +2807,7 @@
     <cellStyle name="Normal 2 6" xfId="10" xr:uid="{5017EE18-ACC5-4821-A5C5-248E8EE60FC5}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{C3F46F99-EC1F-4498-959A-B45E15B0EAE0}"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5356,102 +5356,102 @@
       <c r="L52" s="76"/>
     </row>
     <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="171" t="s">
+      <c r="B53" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="170" t="s">
+      <c r="C53" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="173" t="s">
+      <c r="D53" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="175">
-        <v>1</v>
-      </c>
-      <c r="F53" s="174" t="s">
+      <c r="E53" s="170">
+        <v>1</v>
+      </c>
+      <c r="F53" s="178" t="s">
         <v>441</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="H53" s="175"/>
-      <c r="I53" s="170" t="s">
+      <c r="H53" s="170"/>
+      <c r="I53" s="171" t="s">
         <v>474</v>
       </c>
-      <c r="J53" s="176" t="s">
+      <c r="J53" s="172" t="s">
         <v>299</v>
       </c>
-      <c r="K53" s="177" t="s">
+      <c r="K53" s="173" t="s">
         <v>531</v>
       </c>
-      <c r="L53" s="178"/>
+      <c r="L53" s="174"/>
     </row>
     <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="172"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="174"/>
+      <c r="A54" s="176"/>
+      <c r="B54" s="175"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="119" t="s">
         <v>556</v>
       </c>
-      <c r="H54" s="175"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="178"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="174"/>
     </row>
     <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172"/>
-      <c r="B55" s="171"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="174"/>
+      <c r="A55" s="176"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="178"/>
       <c r="G55" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="H55" s="175"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="176"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="178"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="172"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="174"/>
     </row>
     <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="172"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="174"/>
+      <c r="A56" s="176"/>
+      <c r="B56" s="175"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="178"/>
       <c r="G56" s="119" t="s">
         <v>554</v>
       </c>
-      <c r="H56" s="175"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="177"/>
-      <c r="L56" s="178"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="174"/>
     </row>
     <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="172"/>
-      <c r="B57" s="171"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="174"/>
+      <c r="A57" s="176"/>
+      <c r="B57" s="175"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="178"/>
       <c r="G57" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="H57" s="175"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="177"/>
-      <c r="L57" s="178"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="174"/>
     </row>
     <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -9663,48 +9663,48 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="L53:L57"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="F53:F57"/>
     <mergeCell ref="E53:E57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="L53:L57"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E9 E51:E53 E58:E75">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E49">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10120,26 +10120,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E8">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E12">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E1048576">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11018,7 +11018,7 @@
       </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="102" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>439</v>
       </c>
@@ -11637,39 +11637,39 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12 E41:E48">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E39">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E23">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E28">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11718,10 +11718,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638EC13-446E-4F6B-AFBD-5EC8594B64BB}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13184,7 +13185,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="9" t="s">
         <v>495</v>
@@ -13215,7 +13216,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -13246,7 +13247,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="9" t="s">
         <v>497</v>
@@ -13277,7 +13278,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
         <v>498</v>
@@ -13310,7 +13311,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53" s="9" t="s">
         <v>499</v>
@@ -13341,7 +13342,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54" s="9" t="s">
         <v>575</v>
@@ -13372,7 +13373,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55" s="9" t="s">
         <v>500</v>
@@ -13403,453 +13404,389 @@
         <v>545</v>
       </c>
     </row>
-    <row r="56" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="39">
+        <v>1</v>
+      </c>
+      <c r="F56" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G56" s="114"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="143"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="39">
+        <v>1</v>
+      </c>
+      <c r="F57" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" s="114"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="108" t="s">
+        <v>591</v>
+      </c>
+      <c r="K57" s="143"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="39">
+        <v>1</v>
+      </c>
+      <c r="F58" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" s="114"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="143"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="39">
+        <v>1</v>
+      </c>
+      <c r="F59" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" s="114"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="143"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="39">
+        <v>1</v>
+      </c>
+      <c r="F60" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" s="114"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="108" t="s">
+        <v>592</v>
+      </c>
+      <c r="K60" s="143"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="39">
+        <v>1</v>
+      </c>
+      <c r="F61" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="114"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="143"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="39">
+        <v>1</v>
+      </c>
+      <c r="F62" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G62" s="114"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="143"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="39">
+        <v>1</v>
+      </c>
+      <c r="F63" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G63" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="108" t="s">
+        <v>590</v>
+      </c>
+      <c r="K63" s="143"/>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="25" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D64" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="31">
-        <v>1</v>
-      </c>
-      <c r="F56" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G56" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="25" t="s">
+      <c r="E64" s="31">
+        <v>1</v>
+      </c>
+      <c r="F64" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G64" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H64" s="31"/>
+      <c r="I64" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J64" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="K56" s="151"/>
-      <c r="L56" s="76"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="K64" s="151"/>
+      <c r="L64" s="76"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C65" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="31">
-        <v>1</v>
-      </c>
-      <c r="F57" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G57" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K57" s="152"/>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="31">
-        <v>1</v>
-      </c>
-      <c r="F58" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="152"/>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="31">
-        <v>1</v>
-      </c>
-      <c r="F59" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G59" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K59" s="152"/>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="31">
-        <v>1</v>
-      </c>
-      <c r="F60" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K60" s="152"/>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="137"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G62" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="K62" s="149"/>
-    </row>
-    <row r="63" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B63" s="87" t="s">
-        <v>450</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1</v>
-      </c>
-      <c r="F63" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="K63" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="B64" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="39">
-        <v>1</v>
-      </c>
-      <c r="F64" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G64" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J64" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="K64" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B65" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>66</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="31">
         <v>1</v>
       </c>
       <c r="F65" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="H65" s="25" t="s">
+      <c r="G65" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="152"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1</v>
+      </c>
+      <c r="F66" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="H66" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="25" t="s">
+      <c r="I66" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="152"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="31">
+        <v>1</v>
+      </c>
+      <c r="F67" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G67" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K67" s="152"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" s="152"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="59"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="137"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="39">
+        <v>1</v>
+      </c>
+      <c r="F70" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="J65" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="K65" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B66" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="39">
-        <v>1</v>
-      </c>
-      <c r="F66" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G66" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B67" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="39">
-        <v>1</v>
-      </c>
-      <c r="F67" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J67" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B68" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="39">
-        <v>1</v>
-      </c>
-      <c r="F68" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G68" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J68" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="K68" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B69" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="39">
-        <v>1</v>
-      </c>
-      <c r="F69" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G69" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J69" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="K69" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B70" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="39">
-        <v>1</v>
-      </c>
-      <c r="F70" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="J70" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B71" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" s="26" t="s">
+      <c r="J70" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="K70" s="149"/>
+    </row>
+    <row r="71" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B71" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="C71" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D71" s="37" t="s">
@@ -13862,28 +13799,30 @@
         <v>441</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="H71" s="25"/>
+        <v>378</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I71" s="25" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="J71" s="110" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="K71" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B72" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>66</v>
+    <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B72" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E72" s="39">
         <v>1</v>
@@ -13891,27 +13830,25 @@
       <c r="F72" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="G72" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H72" s="25"/>
       <c r="I72" s="25" t="s">
-        <v>520</v>
+        <v>127</v>
       </c>
       <c r="J72" s="110" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K72" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="B73" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="C73" s="26" t="s">
+    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B73" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D73" s="37" t="s">
@@ -13924,27 +13861,27 @@
         <v>441</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="J73" s="110" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K73" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B74" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>24</v>
@@ -13960,24 +13897,24 @@
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="J74" s="110" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K74" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B75" s="38" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E75" s="39">
         <v>1</v>
@@ -13985,29 +13922,31 @@
       <c r="F75" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="G75" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H75" s="25"/>
+      <c r="G75" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I75" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J75" s="110" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K75" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="B76" s="38" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E76" s="39">
         <v>1</v>
@@ -14015,29 +13954,26 @@
       <c r="F76" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H76" s="25"/>
       <c r="I76" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J76" s="110" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="K76" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="40" t="s">
-        <v>255</v>
+    <row r="77" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B77" s="38" t="s">
+        <v>455</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>7</v>
@@ -14053,25 +13989,24 @@
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J77" s="110" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K77" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="40" t="s">
-        <v>256</v>
+    <row r="78" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B78" s="38" t="s">
+        <v>356</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E78" s="39">
         <v>1</v>
@@ -14080,203 +14015,266 @@
         <v>441</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>215</v>
+        <v>519</v>
       </c>
       <c r="J78" s="110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K78" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="B79" s="19"/>
+    <row r="79" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B79" s="38" t="s">
+        <v>458</v>
+      </c>
       <c r="C79" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>7</v>
       </c>
       <c r="E79" s="39">
         <v>1</v>
       </c>
-      <c r="F79" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G79" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>112</v>
+      <c r="F79" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J79" s="110" t="s">
+        <v>32</v>
       </c>
       <c r="K79" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="25" t="s">
+    <row r="80" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B80" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="39">
+        <v>1</v>
+      </c>
+      <c r="F80" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="J80" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="K80" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B81" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="39">
-        <v>1</v>
-      </c>
-      <c r="F80" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="H80" s="31" t="s">
+      <c r="E81" s="39">
+        <v>1</v>
+      </c>
+      <c r="F81" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H81" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I80" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="K80" s="153"/>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="181"/>
-      <c r="B81" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="170" t="s">
+      <c r="I81" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J81" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="K81" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B82" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="39">
+        <v>1</v>
+      </c>
+      <c r="F82" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G82" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J82" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="K82" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B83" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="39">
+        <v>1</v>
+      </c>
+      <c r="F83" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G83" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J83" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B84" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="173" t="s">
+      <c r="D84" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="175">
-        <v>1</v>
-      </c>
-      <c r="F81" s="182" t="s">
-        <v>441</v>
-      </c>
-      <c r="G81" s="35" t="s">
-        <v>585</v>
-      </c>
-      <c r="H81" s="175"/>
-      <c r="I81" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="J81" s="170" t="s">
-        <v>518</v>
-      </c>
-      <c r="K81" s="183"/>
-      <c r="L81" s="180"/>
-    </row>
-    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="181"/>
-      <c r="B82" s="171"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="182"/>
-      <c r="G82" s="119" t="s">
-        <v>556</v>
-      </c>
-      <c r="H82" s="175"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="170"/>
-      <c r="K82" s="183"/>
-      <c r="L82" s="180"/>
-    </row>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="181"/>
-      <c r="B83" s="171"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="175"/>
-      <c r="F83" s="182"/>
-      <c r="G83" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="H83" s="175"/>
-      <c r="I83" s="179"/>
-      <c r="J83" s="170"/>
-      <c r="K83" s="183"/>
-      <c r="L83" s="180"/>
-    </row>
-    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="181"/>
-      <c r="B84" s="171"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="182"/>
-      <c r="G84" s="119" t="s">
-        <v>554</v>
-      </c>
-      <c r="H84" s="175"/>
-      <c r="I84" s="179"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="183"/>
-      <c r="L84" s="180"/>
-    </row>
-    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="181"/>
-      <c r="B85" s="171"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="182"/>
-      <c r="G85" s="119" t="s">
-        <v>555</v>
-      </c>
-      <c r="H85" s="175"/>
-      <c r="I85" s="179"/>
-      <c r="J85" s="170"/>
-      <c r="K85" s="183"/>
-      <c r="L85" s="180"/>
+      <c r="E84" s="39">
+        <v>1</v>
+      </c>
+      <c r="F84" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J84" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="39">
+        <v>1</v>
+      </c>
+      <c r="F85" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J85" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" s="138" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="B86" s="19"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="40" t="s">
+        <v>256</v>
+      </c>
       <c r="C86" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>67</v>
+      <c r="D86" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="E86" s="39">
         <v>1</v>
       </c>
-      <c r="F86" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G86" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>110</v>
+      <c r="F86" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J86" s="110" t="s">
+        <v>126</v>
       </c>
       <c r="K86" s="138" t="s">
         <v>528</v>
@@ -14284,14 +14282,14 @@
     </row>
     <row r="87" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="E87" s="39">
         <v>1</v>
@@ -14302,27 +14300,26 @@
       <c r="G87" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="H87" s="25"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="18" t="s">
         <v>111</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K87" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>24</v>
+    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>7</v>
       </c>
       <c r="E88" s="39">
         <v>1</v>
@@ -14330,197 +14327,153 @@
       <c r="F88" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G88" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="18" t="s">
+      <c r="G88" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="J88" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="K88" s="138" t="s">
+      <c r="J88" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="K88" s="153"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="181"/>
+      <c r="B89" s="175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="171" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="170">
+        <v>1</v>
+      </c>
+      <c r="F89" s="182" t="s">
+        <v>441</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="H89" s="170"/>
+      <c r="I89" s="179" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="171" t="s">
+        <v>518</v>
+      </c>
+      <c r="K89" s="183"/>
+      <c r="L89" s="180"/>
+    </row>
+    <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="181"/>
+      <c r="B90" s="175"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="177"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="182"/>
+      <c r="G90" s="119" t="s">
+        <v>556</v>
+      </c>
+      <c r="H90" s="170"/>
+      <c r="I90" s="179"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="183"/>
+      <c r="L90" s="180"/>
+    </row>
+    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="181"/>
+      <c r="B91" s="175"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="182"/>
+      <c r="G91" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="H91" s="170"/>
+      <c r="I91" s="179"/>
+      <c r="J91" s="171"/>
+      <c r="K91" s="183"/>
+      <c r="L91" s="180"/>
+    </row>
+    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="181"/>
+      <c r="B92" s="175"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="177"/>
+      <c r="E92" s="170"/>
+      <c r="F92" s="182"/>
+      <c r="G92" s="119" t="s">
+        <v>554</v>
+      </c>
+      <c r="H92" s="170"/>
+      <c r="I92" s="179"/>
+      <c r="J92" s="171"/>
+      <c r="K92" s="183"/>
+      <c r="L92" s="180"/>
+    </row>
+    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="181"/>
+      <c r="B93" s="175"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="177"/>
+      <c r="E93" s="170"/>
+      <c r="F93" s="182"/>
+      <c r="G93" s="119" t="s">
+        <v>555</v>
+      </c>
+      <c r="H93" s="170"/>
+      <c r="I93" s="179"/>
+      <c r="J93" s="171"/>
+      <c r="K93" s="183"/>
+      <c r="L93" s="180"/>
+    </row>
+    <row r="94" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="39">
+        <v>1</v>
+      </c>
+      <c r="F94" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G94" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94" s="138" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="39">
-        <v>1</v>
-      </c>
-      <c r="F89" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G89" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J89" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="K89" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="39">
-        <v>1</v>
-      </c>
-      <c r="F90" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G90" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J90" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="K90" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="39">
-        <v>1</v>
-      </c>
-      <c r="F91" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G91" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J91" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="K91" s="148" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="39">
-        <v>1</v>
-      </c>
-      <c r="F92" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G92" s="51"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="110"/>
-      <c r="K92" s="154"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="39">
-        <v>1</v>
-      </c>
-      <c r="F93" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G93" s="51"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="J93" s="110" t="s">
-        <v>490</v>
-      </c>
-      <c r="K93" s="154"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="39">
-        <v>1</v>
-      </c>
-      <c r="F94" s="113" t="s">
-        <v>441</v>
-      </c>
-      <c r="G94" s="51"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="J94" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K94" s="154"/>
     </row>
     <row r="95" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>563</v>
+        <v>247</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>24</v>
@@ -14531,29 +14484,27 @@
       <c r="F95" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G95" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="H95" s="25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H95" s="25"/>
       <c r="I95" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="J95" s="110" t="s">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="J95" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="K95" s="138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
-        <v>564</v>
+        <v>248</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="26" t="s">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>24</v>
@@ -14564,23 +14515,27 @@
       <c r="F96" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G96" s="51"/>
+      <c r="G96" s="98" t="s">
+        <v>441</v>
+      </c>
       <c r="H96" s="25"/>
       <c r="I96" s="18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="J96" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="K96" s="154"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="K96" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
-        <v>565</v>
+        <v>250</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="26" t="s">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>24</v>
@@ -14591,25 +14546,29 @@
       <c r="F97" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G97" s="51"/>
+      <c r="G97" s="98" t="s">
+        <v>441</v>
+      </c>
       <c r="H97" s="25"/>
       <c r="I97" s="18" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J97" s="110" t="s">
-        <v>507</v>
-      </c>
-      <c r="K97" s="154"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="K97" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E98" s="39">
@@ -14618,27 +14577,27 @@
       <c r="F98" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G98" s="114" t="s">
-        <v>441</v>
-      </c>
-      <c r="H98" s="18"/>
+      <c r="G98" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="H98" s="25"/>
       <c r="I98" s="18" t="s">
         <v>111</v>
       </c>
       <c r="J98" s="27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K98" s="138" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
-        <v>566</v>
+        <v>252</v>
       </c>
       <c r="B99" s="19"/>
-      <c r="C99" s="47" t="s">
-        <v>70</v>
+      <c r="C99" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>24</v>
@@ -14649,26 +14608,28 @@
       <c r="F99" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G99" s="114" t="s">
-        <v>441</v>
-      </c>
-      <c r="H99" s="25"/>
+      <c r="G99" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I99" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="J99" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="K99" s="155"/>
-    </row>
-    <row r="100" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="J99" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="K99" s="148" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
-        <v>567</v>
+        <v>487</v>
       </c>
       <c r="B100" s="19"/>
-      <c r="C100" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="C100" s="26"/>
       <c r="D100" s="37" t="s">
         <v>24</v>
       </c>
@@ -14678,69 +14639,282 @@
       <c r="F100" s="113" t="s">
         <v>441</v>
       </c>
-      <c r="G100" s="98" t="s">
-        <v>441</v>
-      </c>
+      <c r="G100" s="51"/>
       <c r="H100" s="25"/>
-      <c r="I100" s="18" t="s">
+      <c r="I100" s="18"/>
+      <c r="J100" s="110"/>
+      <c r="K100" s="154"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="36"/>
+      <c r="B101" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="39">
+        <v>1</v>
+      </c>
+      <c r="F101" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G101" s="51"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="J101" s="110" t="s">
+        <v>490</v>
+      </c>
+      <c r="K101" s="154"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="36"/>
+      <c r="B102" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="39">
+        <v>1</v>
+      </c>
+      <c r="F102" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G102" s="51"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J102" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="154"/>
+    </row>
+    <row r="103" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="39">
+        <v>1</v>
+      </c>
+      <c r="F103" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G103" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J103" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103" s="138" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="39">
+        <v>1</v>
+      </c>
+      <c r="F104" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G104" s="51"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J104" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104" s="154"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="39">
+        <v>1</v>
+      </c>
+      <c r="F105" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G105" s="51"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J100" s="110" t="s">
+      <c r="J105" s="110" t="s">
+        <v>507</v>
+      </c>
+      <c r="K105" s="154"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="39">
+        <v>1</v>
+      </c>
+      <c r="F106" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G106" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J106" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K106" s="138" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="39">
+        <v>1</v>
+      </c>
+      <c r="F107" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G107" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J107" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="K107" s="155"/>
+    </row>
+    <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A108" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="39">
+        <v>1</v>
+      </c>
+      <c r="F108" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="G108" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="H108" s="25"/>
+      <c r="I108" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J108" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="K100" s="138" t="s">
+      <c r="K108" s="138" t="s">
         <v>528</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I81:I85"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="L81:L85"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="E81:E85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="H81:H85"/>
-    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="K89:K93"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E1 E11 E62:E81">
-    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
+  <conditionalFormatting sqref="E1 E11 E70:E89 E13:E68">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="57" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E60">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:E100">
+  <conditionalFormatting sqref="E94:E108">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -14753,10 +14927,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1" xr:uid="{8A4AB506-496B-4383-9AC6-51370B6D29B7}"/>
-    <hyperlink ref="G80" r:id="rId2" xr:uid="{7E99D447-458F-46DF-961F-8A53B24C6F12}"/>
-    <hyperlink ref="G90" r:id="rId3" xr:uid="{5B435E14-88E4-48E5-8CF9-8E522131B86B}"/>
-    <hyperlink ref="G91" r:id="rId4" xr:uid="{DC3FD5F0-D33E-446A-B0F7-091D9734A42C}"/>
-    <hyperlink ref="G78" r:id="rId5" xr:uid="{0D81C62A-AEE4-4F63-95B5-31A274CDE9E8}"/>
+    <hyperlink ref="G88" r:id="rId2" xr:uid="{7E99D447-458F-46DF-961F-8A53B24C6F12}"/>
+    <hyperlink ref="G98" r:id="rId3" xr:uid="{5B435E14-88E4-48E5-8CF9-8E522131B86B}"/>
+    <hyperlink ref="G99" r:id="rId4" xr:uid="{DC3FD5F0-D33E-446A-B0F7-091D9734A42C}"/>
+    <hyperlink ref="G86" r:id="rId5" xr:uid="{0D81C62A-AEE4-4F63-95B5-31A274CDE9E8}"/>
     <hyperlink ref="G32" r:id="rId6" xr:uid="{8206CC01-822E-40B5-8104-FB45EB9E0781}"/>
     <hyperlink ref="G30" r:id="rId7" xr:uid="{BB64333B-365F-490E-8975-C88428B94AAF}"/>
     <hyperlink ref="G35" r:id="rId8" xr:uid="{AB546156-A64D-4CC9-A609-57ED633F7CB6}"/>
@@ -14764,26 +14938,26 @@
     <hyperlink ref="G38" r:id="rId10" xr:uid="{6058EA09-5EE4-4DD3-9A60-FFF49645C549}"/>
     <hyperlink ref="G40" r:id="rId11" xr:uid="{1E635381-751D-4733-B541-10BA50A779B0}"/>
     <hyperlink ref="G43" r:id="rId12" xr:uid="{67A42756-3216-4A96-85F2-16A159001075}"/>
-    <hyperlink ref="G65" r:id="rId13" xr:uid="{24CB9242-0990-47BF-986E-698FAC30EE14}"/>
-    <hyperlink ref="G67" r:id="rId14" xr:uid="{1632AB48-6E45-4807-871B-78AE72067D40}"/>
-    <hyperlink ref="G70" r:id="rId15" xr:uid="{5BD13379-D452-4965-9BCB-72EA9D5115C1}"/>
-    <hyperlink ref="G71" r:id="rId16" xr:uid="{A8D79699-13BE-4A2C-8DF2-764832B0F863}"/>
-    <hyperlink ref="G72" r:id="rId17" xr:uid="{333973E1-D39B-43CD-BE1B-24B025EEBF2F}"/>
-    <hyperlink ref="G73" r:id="rId18" xr:uid="{08B69EB7-F565-4124-9094-D405AE6C2578}"/>
-    <hyperlink ref="G76" r:id="rId19" xr:uid="{E7D768C2-F95B-4040-B08C-7AB377E80AF1}"/>
-    <hyperlink ref="G63" r:id="rId20" xr:uid="{B144EB7A-19B8-4F96-9824-FE64AADCF49F}"/>
-    <hyperlink ref="G86" r:id="rId21" xr:uid="{AA94FD8F-740A-4431-A10C-DDF8B20CC43A}"/>
+    <hyperlink ref="G73" r:id="rId13" xr:uid="{24CB9242-0990-47BF-986E-698FAC30EE14}"/>
+    <hyperlink ref="G75" r:id="rId14" xr:uid="{1632AB48-6E45-4807-871B-78AE72067D40}"/>
+    <hyperlink ref="G78" r:id="rId15" xr:uid="{5BD13379-D452-4965-9BCB-72EA9D5115C1}"/>
+    <hyperlink ref="G79" r:id="rId16" xr:uid="{A8D79699-13BE-4A2C-8DF2-764832B0F863}"/>
+    <hyperlink ref="G80" r:id="rId17" xr:uid="{333973E1-D39B-43CD-BE1B-24B025EEBF2F}"/>
+    <hyperlink ref="G81" r:id="rId18" xr:uid="{08B69EB7-F565-4124-9094-D405AE6C2578}"/>
+    <hyperlink ref="G84" r:id="rId19" xr:uid="{E7D768C2-F95B-4040-B08C-7AB377E80AF1}"/>
+    <hyperlink ref="G71" r:id="rId20" xr:uid="{B144EB7A-19B8-4F96-9824-FE64AADCF49F}"/>
+    <hyperlink ref="G94" r:id="rId21" xr:uid="{AA94FD8F-740A-4431-A10C-DDF8B20CC43A}"/>
     <hyperlink ref="G7" r:id="rId22" xr:uid="{5346A470-1679-4DC0-B17D-310DEFE3416E}"/>
     <hyperlink ref="G31" r:id="rId23" xr:uid="{2E17D653-6ECD-4FA2-811C-6A0B54FCCD24}"/>
-    <hyperlink ref="G95" r:id="rId24" xr:uid="{B58023DE-7037-4F5C-A352-8F07DC285B33}"/>
+    <hyperlink ref="G103" r:id="rId24" xr:uid="{B58023DE-7037-4F5C-A352-8F07DC285B33}"/>
     <hyperlink ref="G52" r:id="rId25" xr:uid="{A8B9518A-211D-4980-A6AA-1090CDEEF99D}"/>
-    <hyperlink ref="G58" r:id="rId26" xr:uid="{0AA20326-CE8A-4B57-8C41-A7E708CA70E2}"/>
-    <hyperlink ref="G60" r:id="rId27" xr:uid="{BA8E0703-0242-42C7-ACD8-957B5DF6BC9E}"/>
-    <hyperlink ref="G83" r:id="rId28" xr:uid="{D05793D4-32CB-4EB7-85B7-12A19FB92CF7}"/>
-    <hyperlink ref="G85" r:id="rId29" xr:uid="{ABE5CE6F-2D78-43E4-BB1D-842438D20AA4}"/>
-    <hyperlink ref="G82" r:id="rId30" xr:uid="{C3CD0179-CBF9-4496-8AD9-6DE4CCF1954F}"/>
-    <hyperlink ref="G84" r:id="rId31" xr:uid="{382913AB-73B3-41AB-9AC1-23234AE8B07C}"/>
-    <hyperlink ref="G81" r:id="rId32" xr:uid="{71E73A0F-97A9-4077-828D-B47C159B8298}"/>
+    <hyperlink ref="G66" r:id="rId26" xr:uid="{0AA20326-CE8A-4B57-8C41-A7E708CA70E2}"/>
+    <hyperlink ref="G68" r:id="rId27" xr:uid="{BA8E0703-0242-42C7-ACD8-957B5DF6BC9E}"/>
+    <hyperlink ref="G91" r:id="rId28" xr:uid="{D05793D4-32CB-4EB7-85B7-12A19FB92CF7}"/>
+    <hyperlink ref="G93" r:id="rId29" xr:uid="{ABE5CE6F-2D78-43E4-BB1D-842438D20AA4}"/>
+    <hyperlink ref="G90" r:id="rId30" xr:uid="{C3CD0179-CBF9-4496-8AD9-6DE4CCF1954F}"/>
+    <hyperlink ref="G92" r:id="rId31" xr:uid="{382913AB-73B3-41AB-9AC1-23234AE8B07C}"/>
+    <hyperlink ref="G89" r:id="rId32" xr:uid="{71E73A0F-97A9-4077-828D-B47C159B8298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
@@ -14794,13 +14968,13 @@
           <x14:formula1>
             <xm:f>Options!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2 I10 H11 I12 H3:H9 H13:H81 H86:H1048576</xm:sqref>
+          <xm:sqref>I2 I10 H11 I12 H3:H9 H94:H1048576 H13:H89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE5DC61E-5464-4427-B25E-0852A1010F57}">
           <x14:formula1>
             <xm:f>Options!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E56:E61 F10 E11 F12 E100 E2:E9 E13:E21 E27:E42</xm:sqref>
+          <xm:sqref>E64:E69 F10 E11 F12 E108 E2:E9 E13:E21 E27:E42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14812,7 +14986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DE6E3-30D2-41B6-BBA2-2DDBEC0FD510}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="115" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/input/images/mappingFHIR_ROR_ME3_2023_12_18.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3_2023_12_18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ECD727-3A58-438C-9629-9FDFDD6FFC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08082B6C-D810-48F9-8AE5-87A997CB22BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
     <t>uri</t>
   </si>
   <si>
-    <t xml:space="preserve">     equipmentFeature</t>
+    <t xml:space="preserve">    equipmentFeature</t>
   </si>
   <si>
     <t xml:space="preserve">    limitValue</t>
@@ -14990,7 +14990,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
